--- a/docs/black_box_test.xlsx
+++ b/docs/black_box_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A5A530-DD93-4AB4-8F95-15BD74FE3B38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3494199F-2314-4FC3-B4D7-CE68CCD777E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="formulas" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>year</t>
   </si>
@@ -38,9 +38,6 @@
     <t>2014</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -227,16 +224,22 @@
     <t>MAX(ABS(SB_100_C-SB_100_T))END</t>
   </si>
   <si>
-    <t>NORMATIVE(ABCD)END - SB_200_C</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>5503217263</t>
   </si>
   <si>
-    <t>0.0045*AVG_ALL(SB_100_C)END</t>
+    <t>0.45*AVG_ALL(SB_100_C)END</t>
+  </si>
+  <si>
+    <t>NORMATIVE(ABCD)END + SB_200_C</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>120</t>
   </si>
 </sst>
 </file>
@@ -281,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,28 +301,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -328,9 +332,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -344,6 +345,16 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -627,185 +638,185 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.625" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="4"/>
+    <col min="1" max="1" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>8602166992</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>8602166992</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B5" s="14">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>5410786860</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2016</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="14">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>5503217263</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>5503217263</v>
+      </c>
+      <c r="B10" s="14">
+        <v>2016</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>8602166992</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>8602166992</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5410786860</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>5410786860</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="D10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>60</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5503217263</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>5503217263</v>
-      </c>
-      <c r="B10" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +830,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -829,120 +840,120 @@
     <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E2" s="13">
-        <v>0</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="13">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -956,7 +967,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -967,42 +978,42 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="13"/>
       <c r="D2">
         <v>1</v>
       </c>
@@ -1013,27 +1024,27 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>42</v>
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1044,30 +1055,30 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="7"/>
+      <c r="K3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>43</v>
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1079,27 +1090,27 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>43</v>
+      <c r="A5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1110,32 +1121,32 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1144,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/black_box_test.xlsx
+++ b/docs/black_box_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3494199F-2314-4FC3-B4D7-CE68CCD777E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CABF040-A40F-4E3B-9949-7C6258A7A428}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>year</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>120</t>
+  </si>
+  <si>
+    <t>INTERPRETE_K</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -966,14 +969,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -995,10 +999,12 @@
       <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
@@ -1024,12 +1030,15 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="7"/>
@@ -1055,15 +1064,16 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="7"/>
@@ -1090,12 +1100,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="7"/>
@@ -1121,15 +1134,16 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="7"/>
       <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L5" s="7"/>
@@ -1155,12 +1169,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>21</v>
       </c>
       <c r="L6" s="7"/>

--- a/docs/black_box_test.xlsx
+++ b/docs/black_box_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CABF040-A40F-4E3B-9949-7C6258A7A428}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E44D05-36A8-4F1F-9E90-E493E4229444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>year</t>
   </si>
@@ -323,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -357,6 +357,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -687,8 +690,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>8602166992</v>
+      <c r="A3" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="14">
         <v>2015</v>
@@ -789,8 +792,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>5503217263</v>
+      <c r="A9" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="B9" s="14">
         <v>2015</v>
@@ -833,17 +836,21 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.75" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="7" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -853,7 +860,7 @@
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -967,20 +974,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -999,7 +1010,7 @@
       <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="H1" s="7" t="s">
@@ -1183,6 +1194,13 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/black_box_test.xlsx
+++ b/docs/black_box_test.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\projects\Java\riskService\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\java\riskService\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E44D05-36A8-4F1F-9E90-E493E4229444}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27315" windowHeight="13260" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="formulas" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -248,7 +247,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -640,10 +639,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -832,7 +831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -973,11 +972,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AN21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1194,13 +1193,6 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
